--- a/PCSX2_Core/R5900 Implementation Register.xlsx
+++ b/PCSX2_Core/R5900 Implementation Register.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17030"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,12 +9,25 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5775" tabRatio="786"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="3" r:id="rId1"/>
     <sheet name="Opcode (Base)" sheetId="2" r:id="rId2"/>
     <sheet name="SPECIAL" sheetId="1" r:id="rId3"/>
+    <sheet name="REGIMM" sheetId="4" r:id="rId4"/>
+    <sheet name="MMI" sheetId="5" r:id="rId5"/>
+    <sheet name="MMI0" sheetId="6" r:id="rId6"/>
+    <sheet name="MMI1" sheetId="7" r:id="rId7"/>
+    <sheet name="MMI2" sheetId="8" r:id="rId8"/>
+    <sheet name="MMI3" sheetId="9" r:id="rId9"/>
+    <sheet name="COP0" sheetId="10" r:id="rId10"/>
+    <sheet name="BC0" sheetId="11" r:id="rId11"/>
+    <sheet name="C0" sheetId="12" r:id="rId12"/>
+    <sheet name="COP1" sheetId="13" r:id="rId13"/>
+    <sheet name="BC1" sheetId="15" r:id="rId14"/>
+    <sheet name="S" sheetId="16" r:id="rId15"/>
+    <sheet name="W" sheetId="17" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="311">
   <si>
     <t>Mnemonic</t>
   </si>
@@ -425,6 +438,561 @@
   </si>
   <si>
     <t>R5900 Instruction Implementation Register</t>
+  </si>
+  <si>
+    <t>DSLL</t>
+  </si>
+  <si>
+    <t>DSRL</t>
+  </si>
+  <si>
+    <t>Instructions encoded by opcode field.</t>
+  </si>
+  <si>
+    <t>BLTZ</t>
+  </si>
+  <si>
+    <t>BGEZ</t>
+  </si>
+  <si>
+    <t>BLTZL</t>
+  </si>
+  <si>
+    <t>BGEZL</t>
+  </si>
+  <si>
+    <t>TGEI</t>
+  </si>
+  <si>
+    <t>TGEIU</t>
+  </si>
+  <si>
+    <t>TLTI</t>
+  </si>
+  <si>
+    <t>TLTIU</t>
+  </si>
+  <si>
+    <t>TEQI</t>
+  </si>
+  <si>
+    <t>TNEI</t>
+  </si>
+  <si>
+    <t>BLTZAL</t>
+  </si>
+  <si>
+    <t>BGEZAL</t>
+  </si>
+  <si>
+    <t>BLTZALL</t>
+  </si>
+  <si>
+    <t>BGEZALL</t>
+  </si>
+  <si>
+    <t>MTSAB</t>
+  </si>
+  <si>
+    <t>MTSAH</t>
+  </si>
+  <si>
+    <t>Size of jump table in bytes:</t>
+  </si>
+  <si>
+    <t>(assuming 8 bytes per pointer)</t>
+  </si>
+  <si>
+    <t>MADD</t>
+  </si>
+  <si>
+    <t>MADDU</t>
+  </si>
+  <si>
+    <t>PLZCW</t>
+  </si>
+  <si>
+    <t>MMI0</t>
+  </si>
+  <si>
+    <t>MMI2</t>
+  </si>
+  <si>
+    <t>MHFI1</t>
+  </si>
+  <si>
+    <t>MTHI1</t>
+  </si>
+  <si>
+    <t>MFLO1</t>
+  </si>
+  <si>
+    <t>MTLO1</t>
+  </si>
+  <si>
+    <t>MULT1</t>
+  </si>
+  <si>
+    <t>MULTU1</t>
+  </si>
+  <si>
+    <t>DIV1</t>
+  </si>
+  <si>
+    <t>DIVU1</t>
+  </si>
+  <si>
+    <t>MADD1</t>
+  </si>
+  <si>
+    <t>MADDU1</t>
+  </si>
+  <si>
+    <t>MMI1</t>
+  </si>
+  <si>
+    <t>MMI3</t>
+  </si>
+  <si>
+    <t>PMFHL</t>
+  </si>
+  <si>
+    <t>PMTHL</t>
+  </si>
+  <si>
+    <t>PSLLH</t>
+  </si>
+  <si>
+    <t>PSRLH</t>
+  </si>
+  <si>
+    <t>PSRAH</t>
+  </si>
+  <si>
+    <t>PSLLW</t>
+  </si>
+  <si>
+    <t>PSRLW</t>
+  </si>
+  <si>
+    <t>PSRAW</t>
+  </si>
+  <si>
+    <t>Instructions encoded by function field when opcode = MMI and bits 5..0 = MMI0</t>
+  </si>
+  <si>
+    <t>Instructions encoded by function field when opcode = MMI.</t>
+  </si>
+  <si>
+    <t>Instructions encoded by function field when opcode = SPECIAL.</t>
+  </si>
+  <si>
+    <t>Instructions encoded by rt field when opcode = REGIMM.</t>
+  </si>
+  <si>
+    <t>PADDW</t>
+  </si>
+  <si>
+    <t>PSUBW</t>
+  </si>
+  <si>
+    <t>PCGTW</t>
+  </si>
+  <si>
+    <t>PMAXW</t>
+  </si>
+  <si>
+    <t>PADDH</t>
+  </si>
+  <si>
+    <t>PSUBH</t>
+  </si>
+  <si>
+    <t>PCGTH</t>
+  </si>
+  <si>
+    <t>PMAXH</t>
+  </si>
+  <si>
+    <t>PADDB</t>
+  </si>
+  <si>
+    <t>PSUBB</t>
+  </si>
+  <si>
+    <t>PCGTB</t>
+  </si>
+  <si>
+    <t>PADDSW</t>
+  </si>
+  <si>
+    <t>PSUBSW</t>
+  </si>
+  <si>
+    <t>PEXTLW</t>
+  </si>
+  <si>
+    <t>PPACW</t>
+  </si>
+  <si>
+    <t>PADDSH</t>
+  </si>
+  <si>
+    <t>PSUBSH</t>
+  </si>
+  <si>
+    <t>PEXTLH</t>
+  </si>
+  <si>
+    <t>PPACH</t>
+  </si>
+  <si>
+    <t>PADDSB</t>
+  </si>
+  <si>
+    <t>PSUBSB</t>
+  </si>
+  <si>
+    <t>PEXTLB</t>
+  </si>
+  <si>
+    <t>PPACB</t>
+  </si>
+  <si>
+    <t>PEXT5</t>
+  </si>
+  <si>
+    <t>PPAC5</t>
+  </si>
+  <si>
+    <t>Instructions encoded by function field when opcode = MMI and bits 5..0 = MMI1</t>
+  </si>
+  <si>
+    <t>PABSW</t>
+  </si>
+  <si>
+    <t>PCEQW</t>
+  </si>
+  <si>
+    <t>PMINW</t>
+  </si>
+  <si>
+    <t>PADSBH</t>
+  </si>
+  <si>
+    <t>PABSH</t>
+  </si>
+  <si>
+    <t>PCEQH</t>
+  </si>
+  <si>
+    <t>PMINH</t>
+  </si>
+  <si>
+    <t>PCEQB</t>
+  </si>
+  <si>
+    <t>PADDUW</t>
+  </si>
+  <si>
+    <t>PSUBUW</t>
+  </si>
+  <si>
+    <t>PEXTUW</t>
+  </si>
+  <si>
+    <t>PADDUH</t>
+  </si>
+  <si>
+    <t>PSUBUH</t>
+  </si>
+  <si>
+    <t>PEXTUH</t>
+  </si>
+  <si>
+    <t>PADDUB</t>
+  </si>
+  <si>
+    <t>PSUBUB</t>
+  </si>
+  <si>
+    <t>PEXTUB</t>
+  </si>
+  <si>
+    <t>QFSRV</t>
+  </si>
+  <si>
+    <t>Instructions encoded by function field when opcode = MMI and bits 5..0 = MMI2</t>
+  </si>
+  <si>
+    <t>PMADDW</t>
+  </si>
+  <si>
+    <t>PSLLVW</t>
+  </si>
+  <si>
+    <t>PSRLVW</t>
+  </si>
+  <si>
+    <t>PMSUBW</t>
+  </si>
+  <si>
+    <t>PMFHI</t>
+  </si>
+  <si>
+    <t>PMFLO</t>
+  </si>
+  <si>
+    <t>PINTH</t>
+  </si>
+  <si>
+    <t>PMULTW</t>
+  </si>
+  <si>
+    <t>PDIVW</t>
+  </si>
+  <si>
+    <t>PCPYLD</t>
+  </si>
+  <si>
+    <t>PMADDH</t>
+  </si>
+  <si>
+    <t>PHMADH</t>
+  </si>
+  <si>
+    <t>PAND</t>
+  </si>
+  <si>
+    <t>PXOR</t>
+  </si>
+  <si>
+    <t>PMSUBH</t>
+  </si>
+  <si>
+    <t>PHMSBH</t>
+  </si>
+  <si>
+    <t>PEXEH</t>
+  </si>
+  <si>
+    <t>PREVH</t>
+  </si>
+  <si>
+    <t>PMULTH</t>
+  </si>
+  <si>
+    <t>PDIVBW</t>
+  </si>
+  <si>
+    <t>PEXEW</t>
+  </si>
+  <si>
+    <t>PROT3W</t>
+  </si>
+  <si>
+    <t>Instructions encoded by function field when opcode = MMI and bits 5..0 = MMI3</t>
+  </si>
+  <si>
+    <t>PMADDUW</t>
+  </si>
+  <si>
+    <t>PSRAVW</t>
+  </si>
+  <si>
+    <t>PMTHI</t>
+  </si>
+  <si>
+    <t>PMTLO</t>
+  </si>
+  <si>
+    <t>PINTEH</t>
+  </si>
+  <si>
+    <t>PMULTUW</t>
+  </si>
+  <si>
+    <t>PDIVUW</t>
+  </si>
+  <si>
+    <t>PCPYUD</t>
+  </si>
+  <si>
+    <t>POR</t>
+  </si>
+  <si>
+    <t>PNOR</t>
+  </si>
+  <si>
+    <t>PEXCH</t>
+  </si>
+  <si>
+    <t>PCPYH</t>
+  </si>
+  <si>
+    <t>PEXCW</t>
+  </si>
+  <si>
+    <t>Instructions encoded by rs field when opcode = COP0</t>
+  </si>
+  <si>
+    <t>MF0</t>
+  </si>
+  <si>
+    <t>MT0</t>
+  </si>
+  <si>
+    <t>BC0</t>
+  </si>
+  <si>
+    <t>C0</t>
+  </si>
+  <si>
+    <t>Instructions encoded by rt field when opcode = COP0 and rs field = BC0</t>
+  </si>
+  <si>
+    <t>BC0F</t>
+  </si>
+  <si>
+    <t>BC0T</t>
+  </si>
+  <si>
+    <t>BC0FL</t>
+  </si>
+  <si>
+    <t>BC0TL</t>
+  </si>
+  <si>
+    <t>Instructions encoded by function field when opcode = COP0 and rs field = C0</t>
+  </si>
+  <si>
+    <t>UNDEFINED</t>
+  </si>
+  <si>
+    <t>TLBR</t>
+  </si>
+  <si>
+    <t>TLBWI</t>
+  </si>
+  <si>
+    <t>TLBWR</t>
+  </si>
+  <si>
+    <t>TLBP</t>
+  </si>
+  <si>
+    <t>ERET</t>
+  </si>
+  <si>
+    <t>EI</t>
+  </si>
+  <si>
+    <t>DI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instructions encoded by rs field when opcode = COP1 </t>
+  </si>
+  <si>
+    <t>MFC1</t>
+  </si>
+  <si>
+    <t>CFC1</t>
+  </si>
+  <si>
+    <t>MTC1</t>
+  </si>
+  <si>
+    <t>CTC1</t>
+  </si>
+  <si>
+    <t>BC1</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Instructions encoded by rt field when opcode = COP1 and rs = BC1</t>
+  </si>
+  <si>
+    <t>BC1F</t>
+  </si>
+  <si>
+    <t>BC1T</t>
+  </si>
+  <si>
+    <t>BC1FL</t>
+  </si>
+  <si>
+    <t>BC1TL</t>
+  </si>
+  <si>
+    <t>Instructions encoded by function field when opcode = COP1 and rs = S</t>
+  </si>
+  <si>
+    <t>MUL</t>
+  </si>
+  <si>
+    <t>SQRT</t>
+  </si>
+  <si>
+    <t>ABS</t>
+  </si>
+  <si>
+    <t>MOV</t>
+  </si>
+  <si>
+    <t>NEG</t>
+  </si>
+  <si>
+    <t>RSQRT</t>
+  </si>
+  <si>
+    <t>ADDA</t>
+  </si>
+  <si>
+    <t>SUBA</t>
+  </si>
+  <si>
+    <t>MULA</t>
+  </si>
+  <si>
+    <t>MSUB</t>
+  </si>
+  <si>
+    <t>MADDA</t>
+  </si>
+  <si>
+    <t>MSUBA</t>
+  </si>
+  <si>
+    <t>CVTW</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>C.F</t>
+  </si>
+  <si>
+    <t>C.EQ</t>
+  </si>
+  <si>
+    <t>C.LT</t>
+  </si>
+  <si>
+    <t>C.LE</t>
+  </si>
+  <si>
+    <t>Instructions encoded by function field when opcode = COP1 and rs = W</t>
+  </si>
+  <si>
+    <t>CVTS</t>
   </si>
 </sst>
 </file>
@@ -500,7 +1068,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -538,80 +1106,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -619,7 +1113,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -630,12 +1124,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
@@ -732,6 +1220,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -767,6 +1272,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -919,81 +1441,2881 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <f>MAX('Opcode (Base)'!B:B,SPECIAL!B:B,REGIMM!B:B,MMI!B:B,MMI0!B:B,'MMI1'!B:B,'MMI2'!B:B,'MMI3'!B:B,COP0!B:B,BC0!B:B,C0!B:B,'COP1'!B:B,'BC1'!B:B,S!B:B)</f>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12">
+        <f>E9*8</f>
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="4" width="14.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="3">
-        <f>MAX('Opcode (Base)'!B:B,SPECIAL!B:B)</f>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="13"/>
-    </row>
-    <row r="4" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>124</v>
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B7">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="4" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B5">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B6">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="4" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B5">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>271</v>
+      </c>
+      <c r="B9">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>272</v>
+      </c>
+      <c r="B11">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>268</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>268</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>268</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>268</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>268</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>268</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>268</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>268</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>268</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>268</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>268</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>268</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>268</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>268</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>268</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>273</v>
+      </c>
+      <c r="B27">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>268</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>268</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>268</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>268</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>268</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>268</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>268</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>268</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>268</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>268</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>268</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>268</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>268</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>268</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>268</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>268</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>268</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>268</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>268</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>268</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>268</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>268</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>268</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>274</v>
+      </c>
+      <c r="B51">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>275</v>
+      </c>
+      <c r="B52">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>268</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>268</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>268</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>268</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>268</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>268</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="4" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B5">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>279</v>
+      </c>
+      <c r="B7">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>280</v>
+      </c>
+      <c r="B9">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="4" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B5">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B6">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="4" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B5">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>291</v>
+      </c>
+      <c r="B7">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B8">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>293</v>
+      </c>
+      <c r="B9">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>294</v>
+      </c>
+      <c r="B10">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>268</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>268</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>268</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>268</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>268</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>268</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>268</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>268</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>268</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>268</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>268</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>268</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>268</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>295</v>
+      </c>
+      <c r="B24">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>268</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>296</v>
+      </c>
+      <c r="B26">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>297</v>
+      </c>
+      <c r="B27">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>298</v>
+      </c>
+      <c r="B28">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>268</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>147</v>
+      </c>
+      <c r="B30">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>299</v>
+      </c>
+      <c r="B31">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>300</v>
+      </c>
+      <c r="B32">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>301</v>
+      </c>
+      <c r="B33">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>268</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>268</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>268</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>268</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>302</v>
+      </c>
+      <c r="B38">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>268</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>268</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>268</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>303</v>
+      </c>
+      <c r="B42">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>304</v>
+      </c>
+      <c r="B43">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>268</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>268</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>268</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>268</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>268</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>268</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>305</v>
+      </c>
+      <c r="B50">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>268</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>306</v>
+      </c>
+      <c r="B52">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>268</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>307</v>
+      </c>
+      <c r="B54">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>268</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>308</v>
+      </c>
+      <c r="B56">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>268</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>268</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>268</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>268</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>268</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>268</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>268</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>268</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>268</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="4" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>268</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>268</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>268</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>268</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>268</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>268</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>268</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>268</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>268</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>268</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>268</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>268</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>268</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>268</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>268</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>268</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>268</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>268</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>268</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>268</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>268</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>268</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>268</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>268</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>268</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>310</v>
+      </c>
+      <c r="B35">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>268</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>268</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>268</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>268</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>268</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>268</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>268</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>268</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>268</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>268</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>268</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>268</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>268</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>268</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>268</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>268</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>268</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>268</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>268</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>268</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>268</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>268</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>268</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>268</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>268</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>268</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>268</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>268</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>268</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>268</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>268</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1006,24 +4328,29 @@
   <dimension ref="A1:D66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="14.77734375" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="4" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D1" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1037,17 +4364,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -1055,7 +4382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -1063,7 +4390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -1071,7 +4398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -1079,7 +4406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -1087,7 +4414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>78</v>
       </c>
@@ -1095,7 +4422,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>79</v>
       </c>
@@ -1103,7 +4430,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>80</v>
       </c>
@@ -1111,7 +4438,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>81</v>
       </c>
@@ -1119,7 +4446,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -1127,7 +4454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -1135,7 +4462,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>84</v>
       </c>
@@ -1143,7 +4470,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -1151,7 +4478,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -1159,22 +4486,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1182,7 +4509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>90</v>
       </c>
@@ -1190,7 +4517,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>91</v>
       </c>
@@ -1198,7 +4525,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>92</v>
       </c>
@@ -1206,7 +4533,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>93</v>
       </c>
@@ -1214,7 +4541,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>94</v>
       </c>
@@ -1222,7 +4549,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>95</v>
       </c>
@@ -1230,7 +4557,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>96</v>
       </c>
@@ -1238,7 +4565,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>97</v>
       </c>
@@ -1246,12 +4573,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -1259,7 +4586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>99</v>
       </c>
@@ -1267,7 +4594,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>100</v>
       </c>
@@ -1275,7 +4602,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>101</v>
       </c>
@@ -1283,7 +4610,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>102</v>
       </c>
@@ -1291,7 +4618,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>103</v>
       </c>
@@ -1299,7 +4626,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>104</v>
       </c>
@@ -1307,7 +4634,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>105</v>
       </c>
@@ -1315,7 +4642,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>106</v>
       </c>
@@ -1323,7 +4650,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>107</v>
       </c>
@@ -1331,7 +4658,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>108</v>
       </c>
@@ -1339,7 +4666,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>109</v>
       </c>
@@ -1347,7 +4674,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>110</v>
       </c>
@@ -1355,7 +4682,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>111</v>
       </c>
@@ -1363,7 +4690,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>112</v>
       </c>
@@ -1371,7 +4698,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>113</v>
       </c>
@@ -1379,7 +4706,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>114</v>
       </c>
@@ -1387,7 +4714,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>115</v>
       </c>
@@ -1395,7 +4722,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>116</v>
       </c>
@@ -1403,7 +4730,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>41</v>
       </c>
@@ -1411,7 +4738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>117</v>
       </c>
@@ -1419,7 +4746,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>41</v>
       </c>
@@ -1427,7 +4754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>118</v>
       </c>
@@ -1435,7 +4762,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>41</v>
       </c>
@@ -1443,7 +4770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>41</v>
       </c>
@@ -1451,7 +4778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>119</v>
       </c>
@@ -1459,7 +4786,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>120</v>
       </c>
@@ -1467,7 +4794,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>41</v>
       </c>
@@ -1475,7 +4802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>121</v>
       </c>
@@ -1483,7 +4810,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>41</v>
       </c>
@@ -1491,7 +4818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>26</v>
       </c>
@@ -1499,7 +4826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>41</v>
       </c>
@@ -1507,7 +4834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>41</v>
       </c>
@@ -1515,7 +4842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>122</v>
       </c>
@@ -1523,7 +4850,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>123</v>
       </c>
@@ -1540,26 +4867,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="14.77734375" customWidth="1"/>
-    <col min="18" max="18" width="10.88671875" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="4" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D1" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1573,7 +4904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1581,7 +4912,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1589,7 +4920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1597,7 +4928,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1605,7 +4936,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1613,7 +4944,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1621,294 +4952,2519 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+      <c r="B59">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+      <c r="B61">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>67</v>
+      </c>
+      <c r="B66">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="4" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="4" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>153</v>
+      </c>
+      <c r="B20">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B21">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>155</v>
+      </c>
+      <c r="B22">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>156</v>
+      </c>
+      <c r="B27">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>157</v>
+      </c>
+      <c r="B28">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>158</v>
+      </c>
+      <c r="B29">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>159</v>
+      </c>
+      <c r="B30">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>160</v>
+      </c>
+      <c r="B35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>161</v>
+      </c>
+      <c r="B36">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>164</v>
+      </c>
+      <c r="B51">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>165</v>
+      </c>
+      <c r="B52">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>166</v>
+      </c>
+      <c r="B55">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>167</v>
+      </c>
+      <c r="B57">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>168</v>
+      </c>
+      <c r="B58">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>26</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>26</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>169</v>
+      </c>
+      <c r="B63">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>26</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>170</v>
+      </c>
+      <c r="B65">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>171</v>
+      </c>
+      <c r="B66">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="4" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B8">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B9">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B12">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>186</v>
+      </c>
+      <c r="B13">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>187</v>
+      </c>
+      <c r="B19">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>188</v>
+      </c>
+      <c r="B20">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>189</v>
+      </c>
+      <c r="B21">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>191</v>
+      </c>
+      <c r="B23">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>192</v>
+      </c>
+      <c r="B24">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>193</v>
+      </c>
+      <c r="B25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>194</v>
+      </c>
+      <c r="B26">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>195</v>
+      </c>
+      <c r="B27">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>196</v>
+      </c>
+      <c r="B28">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>197</v>
+      </c>
+      <c r="B29">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>198</v>
+      </c>
+      <c r="B30">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>199</v>
+      </c>
+      <c r="B33">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>200</v>
+      </c>
+      <c r="B34">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="4" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B9">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B10">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B13">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>210</v>
+      </c>
+      <c r="B19">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>211</v>
+      </c>
+      <c r="B20">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>212</v>
+      </c>
+      <c r="B21">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>213</v>
+      </c>
+      <c r="B23">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>214</v>
+      </c>
+      <c r="B24">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>215</v>
+      </c>
+      <c r="B25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>216</v>
+      </c>
+      <c r="B27">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B28">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>218</v>
+      </c>
+      <c r="B29">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>219</v>
+      </c>
+      <c r="B30">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="4" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B6">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B7">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>225</v>
+      </c>
+      <c r="B11">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>226</v>
+      </c>
+      <c r="B12">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>227</v>
+      </c>
+      <c r="B13">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>228</v>
+      </c>
+      <c r="B15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B16">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>230</v>
+      </c>
+      <c r="B17">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>231</v>
+      </c>
+      <c r="B19">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>232</v>
+      </c>
+      <c r="B20">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>233</v>
+      </c>
+      <c r="B21">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>234</v>
+      </c>
+      <c r="B22">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>235</v>
+      </c>
+      <c r="B23">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>236</v>
+      </c>
+      <c r="B24">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>237</v>
+      </c>
+      <c r="B29">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>238</v>
+      </c>
+      <c r="B30">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>239</v>
+      </c>
+      <c r="B31">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>240</v>
+      </c>
+      <c r="B32">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>241</v>
+      </c>
+      <c r="B33">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>242</v>
+      </c>
+      <c r="B34">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="4" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>245</v>
+      </c>
+      <c r="B6">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>246</v>
+      </c>
+      <c r="B11">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>247</v>
+      </c>
+      <c r="B12">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>248</v>
+      </c>
+      <c r="B13">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>249</v>
+      </c>
+      <c r="B15">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>250</v>
+      </c>
+      <c r="B16">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>251</v>
+      </c>
+      <c r="B17">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>252</v>
+      </c>
+      <c r="B21">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>253</v>
+      </c>
+      <c r="B22">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>254</v>
+      </c>
+      <c r="B29">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>255</v>
+      </c>
+      <c r="B30">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>256</v>
+      </c>
+      <c r="B33">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
